--- a/biology/Zoologie/Aphididae/Aphididae.xlsx
+++ b/biology/Zoologie/Aphididae/Aphididae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aphididae (les aphidiens) forment une famille d'insectes de l'ordre des hémiptères (les hémiptères sont caractérisés par leurs deux paires d'ailes dont l'une, en partie cornée, est transformée en hémiélytre), de la super-famille des Aphidoidea (pucerons).
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des sous-familles
-Selon  Species File              (29 octobre 2016)[1] :
+          <t>Liste des sous-familles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon  Species File              (29 octobre 2016) :
 sous-famille Aiceoninae
 sous-famille Anoeciinae Tullgren, 1909
 sous-famille Aphidinae Latreille, 1802
@@ -538,8 +555,43 @@
 sous-famille Spicaphidinae Essig, 1953
 sous-famille Taiwanaphidinae
 sous-famille Tamaliinae Oestlund, 1923
-sous-famille Thelaxinae Baker, 1920
-Aperçu de genres (à compléter)
+sous-famille Thelaxinae Baker, 1920</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Aphididae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aphididae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Aperçu de genres (à compléter)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Abstrusomyzus Jensen &amp; Stoetzel, 1999
 Acanthochermes Kollar, 1848
 Acaudinum Börner, 1930
